--- a/Specification/영업관리_테이블명세서_v1_0_0.xlsx
+++ b/Specification/영업관리_테이블명세서_v1_0_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HKIT\Desktop\KIT-PMS\Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4958ACBB-C5D0-4B8E-ABE3-B547A998E77D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F8BE52-F262-4530-841F-5C30972CCF23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -790,62 +790,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1068,23 +1068,22 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1092,18 +1091,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -1115,8 +1114,8 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="45"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1143,10 +1142,10 @@
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="61">
         <v>44823.449687499997</v>
       </c>
-      <c r="E3" s="45"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1169,231 +1168,231 @@
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="1:12" ht="24">
       <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="43" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="47"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="45"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="47"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="55" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-    </row>
-    <row r="9" spans="1:12" ht="24" customHeight="1">
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="47"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="47"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="58" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="58" t="s">
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="47"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="50"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="51"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="52"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="45"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="47"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="58" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="45"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="47"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="50"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="45"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="47"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="59" t="s">
+      <c r="G14" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="59" t="s">
+      <c r="I14" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="49" t="s">
+      <c r="J14" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="45"/>
-      <c r="L14" s="59" t="s">
+      <c r="K14" s="47"/>
+      <c r="L14" s="43" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="13" t="s">
         <v>38</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="60"/>
+      <c r="L15" s="44"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="7">
@@ -2053,740 +2052,7 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:L10"/>
     <mergeCell ref="L14:L15"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J3" xr:uid="{BEAE81C7-89AF-4F5E-AAC6-67712D3815D2}">
-      <formula1>"KEY,MAIN,ACTION"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0428F9E1-BEA6-4104-AFBD-4D7B64D49F0A}">
-  <dimension ref="A1:L28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="45"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="47">
-        <v>44823.440659722219</v>
-      </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45"/>
-    </row>
-    <row r="5" spans="1:12" ht="24">
-      <c r="A5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="45"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="45"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
-      <c r="A10" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="50"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="45"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
-      <c r="A12" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="45"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="50"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="45"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="45"/>
-      <c r="L14" s="59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="62"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="7">
-        <v>1</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="7">
-        <v>2</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="7">
-        <v>3</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="7">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-    </row>
-    <row r="20" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A20" s="7">
-        <v>5</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-    </row>
-    <row r="21" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A21" s="7">
-        <v>6</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="7">
-        <v>7</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="7">
-        <v>8</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="7">
-        <v>9</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A25" s="7">
-        <v>10</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="L25" s="22"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="7">
-        <v>11</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-    </row>
-    <row r="27" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A27" s="7">
-        <v>12</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="L27" s="22"/>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
-      <c r="A28" s="36">
-        <v>13</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-    </row>
-  </sheetData>
-  <mergeCells count="37">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
@@ -2823,7 +2089,743 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:K14"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J3" xr:uid="{BEAE81C7-89AF-4F5E-AAC6-67712D3815D2}">
+      <formula1>"KEY,MAIN,ACTION"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0428F9E1-BEA6-4104-AFBD-4D7B64D49F0A}">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="47"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="61">
+        <v>44823.440659722219</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47"/>
+    </row>
+    <row r="5" spans="1:12" ht="24">
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="47"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="47"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="47"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="47"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="47"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="47"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="48"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="47"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="47"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="48"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="47"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="47"/>
+      <c r="L14" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="62"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="17"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="7">
+        <v>2</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="7">
+        <v>3</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="7">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="7">
+        <v>5</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="7">
+        <v>6</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="7">
+        <v>7</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="7">
+        <v>8</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="7">
+        <v>9</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="7">
+        <v>10</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="7">
+        <v>11</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="24"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="7">
+        <v>12</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="36">
+        <v>13</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" s="37"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
     <mergeCell ref="L14:L15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
